--- a/xlsx/西塞罗_intext.xlsx
+++ b/xlsx/西塞罗_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="665">
   <si>
     <t>西塞罗</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬共和國</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_西塞罗</t>
+    <t>罗马共和国</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E7%9A%AE%E8%AF%BA</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E7%88%BE%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>弗爾米亞</t>
+    <t>弗尔米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>哲學家</t>
+    <t>哲学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%89%A9</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E8%BE%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>修辭學</t>
+    <t>修辞学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>古典拉丁語</t>
+    <t>古典拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%91%A9%E8%A5%BF%E5%B0%BC</t>
@@ -107,25 +107,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里斯多德</t>
+    <t>亚里斯多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E7%96%91%E8%AB%96</t>
   </si>
   <si>
-    <t>懷疑論</t>
+    <t>怀疑论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%8D%E9%81%99%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>逍遙學派</t>
+    <t>逍遥学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E8%A5%BF%E4%BD%97</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%91%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>湯瑪斯·摩爾</t>
+    <t>汤玛斯·摩尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%9E%9C%C2%B7%E6%A0%BC%E8%80%81%E7%A7%80%E6%96%AF</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
+    <t>约翰·洛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -185,25 +185,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E7%88%BE%E6%B3%B0</t>
   </si>
   <si>
-    <t>伏爾泰</t>
+    <t>伏尔泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE-%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E6%99%AE%E9%AD%AF%E6%9D%B1</t>
   </si>
   <si>
-    <t>皮埃爾-約瑟夫·普魯東</t>
+    <t>皮埃尔-约瑟夫·普鲁东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%96%8B%E5%9C%8B%E5%85%83%E5%8B%9B</t>
   </si>
   <si>
-    <t>美國開國元勛</t>
+    <t>美国开国元勋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·亞當斯</t>
+    <t>约翰·亚当斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%B0%BC%C2%B7%E7%89%B9%E6%B4%9B%E5%8B%92%E6%99%AE</t>
@@ -215,21 +215,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A5%A7%C2%B7%E6%96%BD%E7%89%B9%E5%8B%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>列奧·施特勞斯</t>
+    <t>列奥·施特劳斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>罗马共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6%E5%AE%B6</t>
   </si>
   <si>
-    <t>哲学家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AE%B6</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%88</t>
   </si>
   <si>
-    <t>律师</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E5%AE%B6</t>
   </si>
   <si>
@@ -263,9 +254,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
   </si>
   <si>
-    <t>古罗马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%AE%89%E4%B8%9C%E5%B0%BC</t>
   </si>
   <si>
@@ -305,15 +293,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>约翰·洛克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E8%B0%9F</t>
   </si>
   <si>
@@ -323,15 +308,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B8%A0</t>
   </si>
   <si>
-    <t>孟德斯鸠</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
   </si>
   <si>
-    <t>约翰·亚当斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF</t>
   </si>
   <si>
@@ -341,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%A8%8E%E5%A3%AB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>羅馬騎士階級</t>
+    <t>罗马骑士阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A1%94%E5%85%8B</t>
@@ -359,9 +338,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A1%94%E5%85%8B</t>
   </si>
   <si>
-    <t>普魯塔克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
   </si>
   <si>
@@ -377,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>獨裁主義</t>
+    <t>独裁主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9F%BA%E9%87%8C%E6%96%AF</t>
@@ -413,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>羅德島</t>
+    <t>罗德岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%8A%A1%E5%AE%98</t>
@@ -455,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BA%BA_(%E5%8F%A4%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>新人 (古羅馬)</t>
+    <t>新人 (古罗马)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E4%BA%BA%E6%B4%BE</t>
@@ -509,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E5%AF%8C%E4%B8%8D%E5%9D%87</t>
   </si>
   <si>
-    <t>貧富不均</t>
+    <t>贫富不均</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E8%80%81%E9%99%A2</t>
@@ -539,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B4%9B%E5%B8%83%E7%BE%85%E5%9F%BA%E4%BA%BA</t>
   </si>
   <si>
-    <t>阿洛布羅基人</t>
+    <t>阿洛布罗基人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8D%A2</t>
@@ -557,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%88%91</t>
   </si>
   <si>
-    <t>極刑</t>
+    <t>极刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
@@ -599,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%83%B3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>理想主義</t>
+    <t>理想主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E7%88%B5%E5%9F%8E%E5%A0%A1</t>
@@ -623,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%B4%9B%E7%8B%84%E7%83%8F%E6%96%AF%C2%B7%E6%99%AE%E7%88%BE%E5%96%80</t>
   </si>
   <si>
-    <t>克洛狄烏斯·普爾喀</t>
+    <t>克洛狄乌斯·普尔喀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%8E%E7%A5%9E</t>
@@ -641,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA</t>
   </si>
   <si>
-    <t>退伍軍人</t>
+    <t>退伍军人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -785,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%9F%BA%E6%8B%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>克基拉島</t>
+    <t>克基拉岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E9%9B%B7</t>
@@ -821,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%BE%85</t>
   </si>
   <si>
-    <t>瓦羅</t>
+    <t>瓦罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E5%AE%98</t>
@@ -833,9 +809,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
   </si>
   <si>
-    <t>哲学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E8%AF%9D</t>
   </si>
   <si>
@@ -845,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E8%AA%AA</t>
   </si>
   <si>
-    <t>演說</t>
+    <t>演说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E8%BE%9E</t>
@@ -857,9 +830,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
   </si>
   <si>
-    <t>柏拉图</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%88%B6</t>
   </si>
   <si>
@@ -935,9 +905,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E7%AC%AC11%E7%89%88</t>
   </si>
   <si>
@@ -965,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬歷史</t>
+    <t>罗马历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%9A%84%E5%BB%BA%E7%AB%8B</t>
@@ -1091,13 +1058,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8B%99%E5%AE%98_(%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>政務官 (羅馬)</t>
+    <t>政务官 (罗马)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>羅馬帝國政府</t>
+    <t>罗马帝国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7</t>
@@ -1133,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%8A%A0%E5%9C%96%E6%96%AF</t>
   </si>
   <si>
-    <t>雷加圖斯</t>
+    <t>雷加图斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dux</t>
@@ -1163,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>二十六人團</t>
+    <t>二十六人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E6%96%A7%E6%89%8B</t>
@@ -1193,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E9%83%BD_(%E7%A8%B1%E8%99%9F)</t>
   </si>
   <si>
-    <t>奧古斯都 (稱號)</t>
+    <t>奥古斯都 (称号)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B8%9D%E5%85%B1%E6%B2%BB%E5%88%B6</t>
@@ -1235,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%BA%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>十人委員會</t>
+    <t>十人委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribuni_militum_consulari_potestate</t>
@@ -1247,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>三頭政治</t>
+    <t>三头政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%9B%BD%E7%8E%8B</t>
@@ -1325,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91_(%E5%8F%A4%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>平民 (古羅馬)</t>
+    <t>平民 (古罗马)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Conflict_of_the_Orders</t>
@@ -1343,9 +1310,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E9%AA%91%E5%A3%AB%E9%98%B6%E7%BA%A7</t>
   </si>
   <si>
-    <t>罗马骑士阶级</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Gens</t>
   </si>
   <si>
@@ -1385,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古羅馬同性戀</t>
+    <t>古罗马同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Slavery_in_ancient_Rome</t>
@@ -1403,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>古羅馬軍事</t>
+    <t>古罗马军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -1415,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%88%B0%E5%BD%B9%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬戰役史</t>
+    <t>罗马战役史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E7%A7%91%E6%8A%80%E5%8F%B2</t>
@@ -1463,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬陸軍</t>
+    <t>罗马陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%86%9B%E5%9B%A2</t>
@@ -1487,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬海軍</t>
+    <t>罗马海军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Auxiliaries_(Roman_military)</t>
@@ -1547,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>古羅馬文化</t>
+    <t>古罗马文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E6%96%87%E5%AD%A6</t>
@@ -1559,13 +1523,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>古羅馬建築</t>
+    <t>古罗马建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古羅馬宗教</t>
+    <t>古罗马宗教</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_funerals_and_burial</t>
@@ -1667,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%81%93%E8%B7%AF</t>
   </si>
   <si>
-    <t>羅馬道路</t>
+    <t>罗马道路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_bridge</t>
@@ -1703,7 +1667,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>古羅馬農業</t>
+    <t>古罗马农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_commerce</t>
@@ -1829,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9D%8E</t>
   </si>
   <si>
-    <t>盧坎</t>
+    <t>卢坎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%85%8B%E8%8E%B1%E4%BF%AE</t>
@@ -1847,13 +1811,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%B6%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>奧維德</t>
+    <t>奥维德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E5%8E%84%E6%96%AF%C2%B7%E4%BD%A9%E7%89%B9%E7%BE%85%E5%B0%BC%E7%83%8F%E6%96%AF%C2%B7%E9%98%BF%E7%88%BE%E6%AF%94%E7%89%B9</t>
   </si>
   <si>
-    <t>蓋厄斯·佩特羅尼烏斯·阿爾比特</t>
+    <t>盖厄斯·佩特罗尼乌斯·阿尔比特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%8A%B3%E5%9B%BE%E6%96%AF</t>
@@ -1877,7 +1841,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8D%A1</t>
   </si>
   <si>
-    <t>塞內卡</t>
+    <t>塞内卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E6%8F%90%E4%B9%8C%E6%96%AF</t>
@@ -1955,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1973,7 +1937,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1991,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2015,13 +1979,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3373,7 +3337,7 @@
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>9</v>
@@ -3399,10 +3363,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -3428,10 +3392,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -3457,10 +3421,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -3486,10 +3450,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>7</v>
@@ -3515,10 +3479,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3544,10 +3508,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>34</v>
@@ -3573,10 +3537,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="G41" t="n">
         <v>15</v>
@@ -3602,10 +3566,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -3631,10 +3595,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3660,10 +3624,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3689,10 +3653,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>11</v>
@@ -3747,10 +3711,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3776,10 +3740,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -3805,10 +3769,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3834,10 +3798,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3863,10 +3827,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3892,10 +3856,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3921,10 +3885,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3950,10 +3914,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3979,10 +3943,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4037,10 +4001,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -4066,10 +4030,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -4095,10 +4059,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4124,10 +4088,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4153,10 +4117,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -4182,10 +4146,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G62" t="n">
         <v>7</v>
@@ -4211,10 +4175,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4240,10 +4204,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4269,10 +4233,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G65" t="n">
         <v>7</v>
@@ -4298,10 +4262,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4327,10 +4291,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4356,10 +4320,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4385,10 +4349,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4414,10 +4378,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -4443,10 +4407,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -4472,10 +4436,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4501,10 +4465,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4530,10 +4494,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4559,10 +4523,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G75" t="n">
         <v>80</v>
@@ -4588,10 +4552,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -4617,10 +4581,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G77" t="n">
         <v>9</v>
@@ -4646,10 +4610,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>45</v>
@@ -4675,10 +4639,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4704,10 +4668,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>121</v>
@@ -4733,10 +4697,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -4762,10 +4726,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4791,10 +4755,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4820,10 +4784,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4849,10 +4813,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4878,10 +4842,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>51</v>
@@ -4907,10 +4871,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4936,10 +4900,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4965,10 +4929,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>5</v>
@@ -4994,10 +4958,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -5023,10 +4987,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>10</v>
@@ -5052,10 +5016,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5081,10 +5045,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -5110,10 +5074,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>16</v>
@@ -5139,10 +5103,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5168,10 +5132,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5197,10 +5161,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>6</v>
@@ -5226,10 +5190,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5255,10 +5219,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -5284,10 +5248,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>6</v>
@@ -5313,10 +5277,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5342,10 +5306,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5371,10 +5335,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -5400,10 +5364,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5429,10 +5393,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>31</v>
@@ -5458,10 +5422,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5487,10 +5451,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5516,10 +5480,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5545,10 +5509,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>4</v>
@@ -5574,10 +5538,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5603,10 +5567,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G111" t="n">
         <v>20</v>
@@ -5632,10 +5596,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5661,10 +5625,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5690,10 +5654,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5719,10 +5683,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5748,10 +5712,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5777,10 +5741,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5806,10 +5770,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5835,10 +5799,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>31</v>
@@ -5864,10 +5828,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5893,10 +5857,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -5922,10 +5886,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5951,10 +5915,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F123" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5980,10 +5944,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6009,10 +5973,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6038,10 +6002,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6067,10 +6031,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6096,10 +6060,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>126</v>
@@ -6125,10 +6089,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>9</v>
@@ -6154,10 +6118,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>28</v>
@@ -6183,10 +6147,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F131" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G131" t="n">
         <v>22</v>
@@ -6212,10 +6176,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -6241,10 +6205,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6270,10 +6234,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6299,10 +6263,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6328,10 +6292,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G136" t="n">
         <v>12</v>
@@ -6357,10 +6321,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6386,10 +6350,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6415,10 +6379,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6444,10 +6408,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -6473,10 +6437,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G141" t="n">
         <v>5</v>
@@ -6502,10 +6466,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G142" t="n">
         <v>20</v>
@@ -6531,10 +6495,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6560,10 +6524,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G144" t="n">
         <v>17</v>
@@ -6589,10 +6553,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6618,10 +6582,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6647,10 +6611,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6676,10 +6640,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6705,10 +6669,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -6734,10 +6698,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G150" t="n">
         <v>6</v>
@@ -6763,10 +6727,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G151" t="n">
         <v>6</v>
@@ -6792,10 +6756,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -6821,10 +6785,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6850,10 +6814,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -6879,10 +6843,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6908,10 +6872,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6937,10 +6901,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6966,10 +6930,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6995,10 +6959,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7024,10 +6988,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7053,10 +7017,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7082,10 +7046,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7111,10 +7075,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7140,10 +7104,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7169,10 +7133,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7198,10 +7162,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7227,10 +7191,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G167" t="n">
         <v>7</v>
@@ -7256,10 +7220,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7285,10 +7249,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7314,10 +7278,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7343,10 +7307,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7372,10 +7336,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7401,10 +7365,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7430,10 +7394,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G174" t="n">
         <v>7</v>
@@ -7459,10 +7423,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7488,10 +7452,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7517,10 +7481,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7546,10 +7510,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7575,10 +7539,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7604,10 +7568,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7633,10 +7597,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7662,10 +7626,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7691,10 +7655,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7720,10 +7684,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7749,10 +7713,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7778,10 +7742,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7807,10 +7771,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7836,10 +7800,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7865,10 +7829,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7894,10 +7858,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7923,10 +7887,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7952,10 +7916,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7981,10 +7945,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8010,10 +7974,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8039,10 +8003,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8068,10 +8032,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8097,10 +8061,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8126,10 +8090,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8155,10 +8119,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8184,10 +8148,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8213,10 +8177,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8242,10 +8206,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8271,10 +8235,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8300,10 +8264,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -8329,10 +8293,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8358,10 +8322,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8387,10 +8351,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8416,10 +8380,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8445,10 +8409,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8474,10 +8438,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8503,10 +8467,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8532,10 +8496,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8561,10 +8525,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8590,10 +8554,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G214" t="n">
         <v>17</v>
@@ -8619,10 +8583,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8648,10 +8612,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8677,10 +8641,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -8706,10 +8670,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8735,10 +8699,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8764,10 +8728,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8793,10 +8757,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8822,10 +8786,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8851,10 +8815,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>5</v>
@@ -8880,10 +8844,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>9</v>
@@ -8909,10 +8873,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8938,10 +8902,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8967,10 +8931,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>101</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8996,10 +8960,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9025,10 +8989,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9054,10 +9018,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9083,10 +9047,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9112,10 +9076,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9141,10 +9105,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9170,10 +9134,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9199,10 +9163,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9228,10 +9192,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9257,10 +9221,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9286,10 +9250,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9315,10 +9279,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9344,10 +9308,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9373,10 +9337,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9402,10 +9366,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9431,10 +9395,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9460,10 +9424,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9489,10 +9453,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9518,10 +9482,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9547,10 +9511,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9576,10 +9540,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>4</v>
@@ -9605,10 +9569,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9634,10 +9598,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9663,10 +9627,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9692,10 +9656,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9721,10 +9685,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9750,10 +9714,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9779,10 +9743,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9808,10 +9772,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9837,10 +9801,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9866,10 +9830,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9895,10 +9859,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9924,10 +9888,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9953,10 +9917,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9982,10 +9946,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>8</v>
@@ -10011,10 +9975,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10040,10 +10004,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10069,10 +10033,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10098,10 +10062,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10127,10 +10091,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10156,10 +10120,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10185,10 +10149,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10214,10 +10178,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10243,10 +10207,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10272,10 +10236,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10301,10 +10265,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10330,10 +10294,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10359,10 +10323,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10388,10 +10352,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10417,10 +10381,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10446,10 +10410,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10475,10 +10439,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10504,10 +10468,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10533,10 +10497,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -10562,10 +10526,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10591,10 +10555,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10620,10 +10584,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10649,10 +10613,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10678,10 +10642,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10707,10 +10671,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10736,10 +10700,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10765,10 +10729,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10794,10 +10758,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10823,10 +10787,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F291" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10852,10 +10816,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10881,10 +10845,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10910,10 +10874,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10939,10 +10903,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10997,10 +10961,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11026,10 +10990,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11055,10 +11019,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -11084,10 +11048,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11113,10 +11077,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11142,10 +11106,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11171,10 +11135,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11200,10 +11164,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11229,10 +11193,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11258,10 +11222,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11287,10 +11251,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11316,10 +11280,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11345,10 +11309,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11374,10 +11338,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11403,10 +11367,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11432,10 +11396,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11461,10 +11425,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11490,10 +11454,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11519,10 +11483,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11548,10 +11512,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11577,10 +11541,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11606,10 +11570,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11635,10 +11599,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11664,10 +11628,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11693,10 +11657,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11722,10 +11686,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11751,10 +11715,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11780,10 +11744,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -11809,10 +11773,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11838,10 +11802,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11867,10 +11831,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G327" t="n">
         <v>5</v>
@@ -11896,10 +11860,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11925,10 +11889,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -11954,10 +11918,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11983,10 +11947,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12012,10 +11976,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G332" t="n">
         <v>5</v>
@@ -12041,10 +12005,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12070,10 +12034,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12099,10 +12063,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12128,10 +12092,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12157,10 +12121,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12186,10 +12150,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12215,10 +12179,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12244,10 +12208,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12273,10 +12237,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12302,10 +12266,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12331,10 +12295,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12360,10 +12324,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12389,10 +12353,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12418,10 +12382,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12447,10 +12411,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>

--- a/xlsx/西塞罗_intext.xlsx
+++ b/xlsx/西塞罗_intext.xlsx
@@ -29,7 +29,7 @@
     <t>羅馬共和國</t>
   </si>
   <si>
-    <t>政策_政策_政治學_西塞罗</t>
+    <t>体育运动_体育运动_古罗马_西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E7%9A%AE%E8%AF%BA</t>
